--- a/Shaco_NPOI/NPOI_Question/bin/Debug/Folder/Q3/1.xlsx
+++ b/Shaco_NPOI/NPOI_Question/bin/Debug/Folder/Q3/1.xlsx
@@ -26,6 +26,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4120,6 +4121,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="3838575"/>
+          <a:ext cx="1638300" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4388,7 +4444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
